--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -521,12 +521,6 @@
     <t>Do you support or oppose stricter gun laws in the United States?</t>
   </si>
   <si>
-    <t>Owns guns</t>
-  </si>
-  <si>
-    <t>Doesn't own guns</t>
-  </si>
-  <si>
     <t>Support</t>
   </si>
   <si>
@@ -605,9 +599,6 @@
     <t>Very</t>
   </si>
   <si>
-    <t>Not</t>
-  </si>
-  <si>
     <t>Not Too</t>
   </si>
   <si>
@@ -657,6 +648,15 @@
   </si>
   <si>
     <t>Do you think the Minnesota Legislature is going too far with gun control, is not going far enough or is taking just the right approach?</t>
+  </si>
+  <si>
+    <t>Owns gun</t>
+  </si>
+  <si>
+    <t>Doesn’t own gun</t>
+  </si>
+  <si>
+    <t>Not at all</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="539">
+  <cellStyleXfs count="553">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1299,8 +1299,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1367,8 +1381,9 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="539">
+  <cellStyles count="553">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1638,6 +1653,13 @@
     <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1907,6 +1929,13 @@
     <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2238,9 +2267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C260" sqref="C260"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J171" sqref="J171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2349,13 +2378,13 @@
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -2435,13 +2464,13 @@
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F3" s="23">
         <v>0.56000000000000005</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H3" s="23">
         <v>0.31</v>
@@ -2521,13 +2550,13 @@
         <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F4" s="23">
         <v>0.74</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H4" s="23">
         <v>0.14000000000000001</v>
@@ -2607,13 +2636,13 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F5" s="23">
         <v>0.51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H5" s="23">
         <v>0.38</v>
@@ -2693,13 +2722,13 @@
         <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F6" s="23">
         <v>0.45</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H6" s="23">
         <v>0.4</v>
@@ -2779,13 +2808,13 @@
         <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F7" s="23">
         <v>0.46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H7" s="23">
         <v>0.42</v>
@@ -2865,13 +2894,13 @@
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F8" s="23">
         <v>0.65</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H8" s="23">
         <v>0.21</v>
@@ -2951,13 +2980,13 @@
         <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F9" s="23">
         <v>0.86</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H9" s="23">
         <v>0.09</v>
@@ -3037,13 +3066,13 @@
         <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F10" s="23">
         <v>0.26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H10" s="23">
         <v>0.56999999999999995</v>
@@ -3123,13 +3152,13 @@
         <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F11" s="23">
         <v>0.52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H11" s="23">
         <v>0.31</v>
@@ -3206,16 +3235,16 @@
         <v>156</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F12" s="23">
         <v>0.59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H12" s="23">
         <v>0.25</v>
@@ -3292,16 +3321,16 @@
         <v>156</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F13" s="23">
         <v>0.53</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H13" s="23">
         <v>0.37</v>
@@ -3381,13 +3410,13 @@
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F14" s="23">
         <v>0.54</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H14" s="23">
         <v>0.3</v>
@@ -3467,13 +3496,13 @@
         <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F15" s="23">
         <v>0.56999999999999995</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H15" s="23">
         <v>0.32</v>
@@ -3553,13 +3582,13 @@
         <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F16" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H16" s="23">
         <v>0.36</v>
@@ -3639,13 +3668,13 @@
         <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F17" s="23">
         <v>0.56999999999999995</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H17" s="23">
         <v>0.23</v>
@@ -3722,16 +3751,16 @@
         <v>156</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="F18" s="23">
         <v>0.49</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H18" s="23">
         <v>0.39</v>
@@ -3808,16 +3837,16 @@
         <v>156</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F19" s="23">
         <v>0.65</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H19" s="23">
         <v>0.21</v>
@@ -3888,22 +3917,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -3974,22 +4003,22 @@
         <v>2018</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F21" s="23">
         <v>0.35</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H21" s="23">
         <v>0.59</v>
@@ -4060,22 +4089,22 @@
         <v>2018</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F22" s="23">
         <v>0.22</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H22" s="23">
         <v>0.71</v>
@@ -4146,22 +4175,22 @@
         <v>2018</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F23" s="23">
         <v>0.39</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H23" s="23">
         <v>0.57999999999999996</v>
@@ -4232,22 +4261,22 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F24" s="23">
         <v>0.43</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H24" s="23">
         <v>0.5</v>
@@ -4318,22 +4347,22 @@
         <v>2018</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F25" s="23">
         <v>0.4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H25" s="23">
         <v>0.55000000000000004</v>
@@ -4404,22 +4433,22 @@
         <v>2018</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F26" s="23">
         <v>0.31</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H26" s="23">
         <v>0.62</v>
@@ -4490,22 +4519,22 @@
         <v>2018</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F27" s="23">
         <v>0.02</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H27" s="23">
         <v>0.94</v>
@@ -4576,22 +4605,22 @@
         <v>2018</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F28" s="23">
         <v>0.74</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H28" s="23">
         <v>0.2</v>
@@ -4662,22 +4691,22 @@
         <v>2018</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F29" s="23">
         <v>0.33</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H29" s="23">
         <v>0.57999999999999996</v>
@@ -4748,22 +4777,22 @@
         <v>2018</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F30" s="23">
         <v>0.32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H30" s="23">
         <v>0.64</v>
@@ -4834,22 +4863,22 @@
         <v>2018</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F31" s="23">
         <v>0.37</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H31" s="23">
         <v>0.55000000000000004</v>
@@ -4920,22 +4949,22 @@
         <v>2018</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F32" s="23">
         <v>0.34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H32" s="23">
         <v>0.63</v>
@@ -5006,22 +5035,22 @@
         <v>2018</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F33" s="23">
         <v>0.35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H33" s="23">
         <v>0.56999999999999995</v>
@@ -5092,22 +5121,22 @@
         <v>2018</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F34" s="23">
         <v>0.39</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H34" s="23">
         <v>0.54</v>
@@ -5178,22 +5207,22 @@
         <v>2018</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F35" s="23">
         <v>0.3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H35" s="23">
         <v>0.65</v>
@@ -5264,22 +5293,22 @@
         <v>2018</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="F36" s="23">
         <v>0.39</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H36" s="23">
         <v>0.54</v>
@@ -5350,22 +5379,22 @@
         <v>2018</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F37" s="23">
         <v>0.28999999999999998</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H37" s="23">
         <v>0.66</v>
@@ -5436,22 +5465,22 @@
         <v>2018</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -5522,22 +5551,22 @@
         <v>2018</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F39" s="23">
         <v>0.63</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H39" s="23">
         <v>0.27</v>
@@ -5608,22 +5637,22 @@
         <v>2018</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F40" s="23">
         <v>0.82</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H40" s="23">
         <v>0.14000000000000001</v>
@@ -5694,22 +5723,22 @@
         <v>2018</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F41" s="23">
         <v>0.59</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H41" s="23">
         <v>0.28999999999999998</v>
@@ -5780,22 +5809,22 @@
         <v>2018</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F42" s="23">
         <v>0.47</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H42" s="23">
         <v>0.4</v>
@@ -5866,22 +5895,22 @@
         <v>2018</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F43" s="23">
         <v>0.51</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H43" s="23">
         <v>0.37</v>
@@ -5952,22 +5981,22 @@
         <v>2018</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F44" s="23">
         <v>0.75</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H44" s="23">
         <v>0.17</v>
@@ -6038,22 +6067,22 @@
         <v>2018</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F45" s="23">
         <v>0.91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H45" s="23">
         <v>7.0000000000000007E-2</v>
@@ -6124,22 +6153,22 @@
         <v>2018</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F46" s="23">
         <v>0.31</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H46" s="23">
         <v>0.5</v>
@@ -6210,22 +6239,22 @@
         <v>2018</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F47" s="23">
         <v>0.63</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H47" s="23">
         <v>0.27</v>
@@ -6296,22 +6325,22 @@
         <v>2018</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F48" s="23">
         <v>0.67</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H48" s="23">
         <v>0.21</v>
@@ -6382,22 +6411,22 @@
         <v>2018</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F49" s="23">
         <v>0.59</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H49" s="23">
         <v>0.32</v>
@@ -6468,22 +6497,22 @@
         <v>2018</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F50" s="23">
         <v>0.62</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H50" s="23">
         <v>0.26</v>
@@ -6554,22 +6583,22 @@
         <v>2018</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F51" s="23">
         <v>0.63</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H51" s="23">
         <v>0.28000000000000003</v>
@@ -6640,22 +6669,22 @@
         <v>2018</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F52" s="23">
         <v>0.56999999999999995</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H52" s="23">
         <v>0.31</v>
@@ -6726,22 +6755,22 @@
         <v>2018</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F53" s="23">
         <v>0.7</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H53" s="23">
         <v>0.23</v>
@@ -6812,22 +6841,22 @@
         <v>2018</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="F54" s="23">
         <v>0.53</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H54" s="23">
         <v>0.35</v>
@@ -6898,22 +6927,22 @@
         <v>2018</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F55" s="23">
         <v>0.76</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H55" s="23">
         <v>0.17</v>
@@ -6984,22 +7013,22 @@
         <v>2018</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -7070,22 +7099,22 @@
         <v>2018</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F57" s="23">
         <v>0.86</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H57" s="23">
         <v>0.09</v>
@@ -7156,22 +7185,22 @@
         <v>2018</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F58" s="23">
         <v>0.89</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H58" s="23">
         <v>0.04</v>
@@ -7242,22 +7271,22 @@
         <v>2018</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F59" s="23">
         <v>0.85</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H59" s="23">
         <v>0.12</v>
@@ -7328,22 +7357,22 @@
         <v>2018</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F60" s="23">
         <v>0.84</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H60" s="23">
         <v>0.1</v>
@@ -7414,22 +7443,22 @@
         <v>2018</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F61" s="23">
         <v>0.82</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H61" s="23">
         <v>0.15</v>
@@ -7500,22 +7529,22 @@
         <v>2018</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F62" s="23">
         <v>0.89</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H62" s="23">
         <v>0.04</v>
@@ -7586,22 +7615,22 @@
         <v>2018</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F63" s="23">
         <v>0.9</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H63" s="23">
         <v>0.05</v>
@@ -7672,22 +7701,22 @@
         <v>2018</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F64" s="23">
         <v>0.86</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H64" s="23">
         <v>0.09</v>
@@ -7758,22 +7787,22 @@
         <v>2018</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F65" s="23">
         <v>0.8</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H65" s="23">
         <v>0.14000000000000001</v>
@@ -7844,22 +7873,22 @@
         <v>2018</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F66" s="23">
         <v>0.88</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H66" s="23">
         <v>0.06</v>
@@ -7930,22 +7959,22 @@
         <v>2018</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F67" s="23">
         <v>0.85</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H67" s="23">
         <v>0.11</v>
@@ -8016,22 +8045,22 @@
         <v>2018</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F68" s="23">
         <v>0.86</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H68" s="23">
         <v>0.08</v>
@@ -8102,22 +8131,22 @@
         <v>2018</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F69" s="23">
         <v>0.85</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H69" s="23">
         <v>0.1</v>
@@ -8188,22 +8217,22 @@
         <v>2018</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F70" s="23">
         <v>0.85</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H70" s="23">
         <v>0.1</v>
@@ -8274,22 +8303,22 @@
         <v>2018</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F71" s="23">
         <v>0.87</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H71" s="23">
         <v>0.08</v>
@@ -8360,22 +8389,22 @@
         <v>2018</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="F72" s="23">
         <v>0.83</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H72" s="23">
         <v>0.14000000000000001</v>
@@ -8446,22 +8475,22 @@
         <v>2018</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F73" s="23">
         <v>0.89</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H73" s="23">
         <v>0.03</v>
@@ -8532,22 +8561,22 @@
         <v>2018</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F74" s="2">
         <v>0</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -8618,22 +8647,22 @@
         <v>2018</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F75" s="23">
         <v>0.59</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H75" s="23">
         <v>0.31</v>
@@ -8704,22 +8733,22 @@
         <v>2018</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F76" s="23">
         <v>0.74</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H76" s="23">
         <v>0.18</v>
@@ -8790,22 +8819,22 @@
         <v>2018</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F77" s="23">
         <v>0.56999999999999995</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H77" s="23">
         <v>0.3</v>
@@ -8876,22 +8905,22 @@
         <v>2018</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F78" s="23">
         <v>0.48</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H78" s="23">
         <v>0.43</v>
@@ -8962,22 +8991,22 @@
         <v>2018</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F79" s="23">
         <v>0.46</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H79" s="23">
         <v>0.47</v>
@@ -9048,22 +9077,22 @@
         <v>2018</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" s="23">
         <v>0.72</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H80" s="23">
         <v>0.15</v>
@@ -9134,22 +9163,22 @@
         <v>2018</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" s="23">
         <v>0.91</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H81" s="23">
         <v>7.0000000000000007E-2</v>
@@ -9220,22 +9249,22 @@
         <v>2018</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" s="23">
         <v>0.34</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H82" s="23">
         <v>0.51</v>
@@ -9306,22 +9335,22 @@
         <v>2018</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" s="23">
         <v>0.48</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H83" s="23">
         <v>0.38</v>
@@ -9392,22 +9421,22 @@
         <v>2018</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F84" s="23">
         <v>0.64</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H84" s="23">
         <v>0.24</v>
@@ -9478,22 +9507,22 @@
         <v>2018</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F85" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H85" s="23">
         <v>0.37</v>
@@ -9564,22 +9593,22 @@
         <v>2018</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F86" s="23">
         <v>0.56000000000000005</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H86" s="23">
         <v>0.28999999999999998</v>
@@ -9650,22 +9679,22 @@
         <v>2018</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F87" s="23">
         <v>0.61</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H87" s="23">
         <v>0.32</v>
@@ -9736,22 +9765,22 @@
         <v>2018</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F88" s="23">
         <v>0.57999999999999996</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H88" s="23">
         <v>0.33</v>
@@ -9822,22 +9851,22 @@
         <v>2018</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F89" s="23">
         <v>0.6</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H89" s="23">
         <v>0.28999999999999998</v>
@@ -9908,22 +9937,22 @@
         <v>2018</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="F90" s="23">
         <v>0.44</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H90" s="23">
         <v>0.47</v>
@@ -9994,22 +10023,22 @@
         <v>2018</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F91" s="23">
         <v>0.78</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H91" s="23">
         <v>0.11</v>
@@ -10080,22 +10109,22 @@
         <v>2018</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F92" s="2">
         <v>0</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -10166,22 +10195,22 @@
         <v>2018</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F93" s="23">
         <v>0.9</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H93" s="23">
         <v>0.08</v>
@@ -10252,22 +10281,22 @@
         <v>2018</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F94" s="23">
         <v>0.96</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H94" s="23">
         <v>0.02</v>
@@ -10338,22 +10367,22 @@
         <v>2018</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F95" s="23">
         <v>0.9</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H95" s="23">
         <v>0.08</v>
@@ -10424,22 +10453,22 @@
         <v>2018</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F96" s="23">
         <v>0.85</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H96" s="23">
         <v>0.13</v>
@@ -10510,22 +10539,22 @@
         <v>2018</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F97" s="23">
         <v>0.86</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H97" s="23">
         <v>0.13</v>
@@ -10596,22 +10625,22 @@
         <v>2018</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F98" s="23">
         <v>0.93</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H98" s="23">
         <v>0.04</v>
@@ -10682,22 +10711,22 @@
         <v>2018</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F99" s="23">
         <v>0.96</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H99" s="23">
         <v>0.03</v>
@@ -10768,22 +10797,22 @@
         <v>2018</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F100" s="23">
         <v>0.86</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H100" s="23">
         <v>0.11</v>
@@ -10854,22 +10883,22 @@
         <v>2018</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F101" s="23">
         <v>0.86</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H101" s="23">
         <v>0.11</v>
@@ -10940,22 +10969,22 @@
         <v>2018</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F102" s="23">
         <v>0.93</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H102" s="23">
         <v>0.05</v>
@@ -11026,22 +11055,22 @@
         <v>2018</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F103" s="23">
         <v>0.88</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H103" s="23">
         <v>0.1</v>
@@ -11112,22 +11141,22 @@
         <v>2018</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F104" s="23">
         <v>0.94</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H104" s="23">
         <v>0.02</v>
@@ -11198,22 +11227,22 @@
         <v>2018</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F105" s="23">
         <v>0.87</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H105" s="23">
         <v>0.12</v>
@@ -11284,22 +11313,22 @@
         <v>2018</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F106" s="23">
         <v>0.88</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H106" s="23">
         <v>0.09</v>
@@ -11370,22 +11399,22 @@
         <v>2018</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F107" s="23">
         <v>0.92</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H107" s="23">
         <v>7.0000000000000007E-2</v>
@@ -11456,22 +11485,22 @@
         <v>2018</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D108" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="F108" s="23">
         <v>0.87</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H108" s="23">
         <v>0.1</v>
@@ -11542,22 +11571,22 @@
         <v>2018</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F109" s="23">
         <v>0.94</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H109" s="23">
         <v>0.05</v>
@@ -11628,28 +11657,28 @@
         <v>2018</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F110" s="2">
         <v>0</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J110" s="2">
         <v>0</v>
@@ -11714,28 +11743,28 @@
         <v>2018</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F111" s="23">
         <v>0.36</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H111" s="23">
         <v>0.54</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J111" s="23">
         <v>0.1</v>
@@ -11800,28 +11829,28 @@
         <v>2018</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F112" s="23">
         <v>0.17</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H112" s="23">
         <v>0.72</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J112" s="23">
         <v>0.11</v>
@@ -11886,28 +11915,28 @@
         <v>2018</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F113" s="23">
         <v>0.38</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H113" s="23">
         <v>0.5</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J113" s="23">
         <v>0.12</v>
@@ -11972,28 +12001,28 @@
         <v>2018</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F114" s="23">
         <v>0.5</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H114" s="23">
         <v>0.42</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J114" s="23">
         <v>0.08</v>
@@ -12058,28 +12087,28 @@
         <v>2018</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F115" s="23">
         <v>0.49</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H115" s="23">
         <v>0.46</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J115" s="23">
         <v>0.05</v>
@@ -12144,28 +12173,28 @@
         <v>2018</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F116" s="23">
         <v>0.24</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H116" s="23">
         <v>0.61</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J116" s="23">
         <v>0.15</v>
@@ -12230,28 +12259,28 @@
         <v>2018</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F117" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H117" s="23">
         <v>0.92</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J117" s="23">
         <v>0.01</v>
@@ -12316,28 +12345,28 @@
         <v>2018</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F118" s="23">
         <v>0.72</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H118" s="23">
         <v>0.14000000000000001</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J118" s="23">
         <v>0.14000000000000001</v>
@@ -12402,28 +12431,28 @@
         <v>2018</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F119" s="23">
         <v>0.33</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H119" s="23">
         <v>0.51</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J119" s="23">
         <v>0.16</v>
@@ -12488,28 +12517,28 @@
         <v>2018</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F120" s="23">
         <v>0.31</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H120" s="23">
         <v>0.56999999999999995</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J120" s="23">
         <v>0.12</v>
@@ -12574,28 +12603,28 @@
         <v>2018</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F121" s="23">
         <v>0.41</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H121" s="23">
         <v>0.51</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J121" s="23">
         <v>0.08</v>
@@ -12660,28 +12689,28 @@
         <v>2018</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F122" s="23">
         <v>0.35</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H122" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J122" s="23">
         <v>0.1</v>
@@ -12746,28 +12775,28 @@
         <v>2018</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F123" s="23">
         <v>0.36</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H123" s="23">
         <v>0.53</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J123" s="23">
         <v>0.11</v>
@@ -12832,28 +12861,28 @@
         <v>2018</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F124" s="23">
         <v>0.43</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H124" s="23">
         <v>0.52</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J124" s="23">
         <v>0.05</v>
@@ -12918,28 +12947,28 @@
         <v>2018</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F125" s="23">
         <v>0.27</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H125" s="23">
         <v>0.56999999999999995</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J125" s="23">
         <v>0.16</v>
@@ -13004,28 +13033,28 @@
         <v>2018</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F126" s="23">
         <v>0.51</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H126" s="23">
         <v>0.46</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J126" s="23">
         <v>0.03</v>
@@ -13090,28 +13119,28 @@
         <v>2018</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F127" s="23">
         <v>0.17</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H127" s="23">
         <v>0.64</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J127" s="23">
         <v>0.19</v>
@@ -13176,34 +13205,34 @@
         <v>2018</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F128" s="2">
         <v>0</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H128" s="2">
         <v>0</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J128" s="2">
         <v>0</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L128" s="2">
         <v>0</v>
@@ -13262,34 +13291,34 @@
         <v>2018</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F129" s="23">
         <v>0.23</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H129" s="23">
         <v>0.45</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J129" s="23">
         <v>0.21</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L129" s="23">
         <v>0.11</v>
@@ -13348,34 +13377,34 @@
         <v>2018</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F130" s="23">
         <v>0.09</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H130" s="23">
         <v>0.69</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J130" s="23">
         <v>0.16</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L130" s="23">
         <v>0.06</v>
@@ -13434,34 +13463,34 @@
         <v>2018</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F131" s="23">
         <v>0.28999999999999998</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H131" s="23">
         <v>0.28999999999999998</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J131" s="23">
         <v>0.28000000000000003</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L131" s="23">
         <v>0.14000000000000001</v>
@@ -13520,34 +13549,34 @@
         <v>2018</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F132" s="23">
         <v>0.3</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H132" s="23">
         <v>0.37</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J132" s="23">
         <v>0.2</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L132" s="23">
         <v>0.13</v>
@@ -13606,34 +13635,34 @@
         <v>2018</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F133" s="23">
         <v>0.3</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H133" s="23">
         <v>0.34</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J133" s="23">
         <v>0.24</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L133" s="23">
         <v>0.12</v>
@@ -13692,34 +13721,34 @@
         <v>2018</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F134" s="23">
         <v>0.17</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H134" s="23">
         <v>0.54</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J134" s="23">
         <v>0.18</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L134" s="23">
         <v>0.11</v>
@@ -13778,34 +13807,34 @@
         <v>2018</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F135" s="23">
         <v>0.08</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H135" s="23">
         <v>0.77</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J135" s="23">
         <v>0.1</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L135" s="23">
         <v>0.05</v>
@@ -13864,34 +13893,34 @@
         <v>2018</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F136" s="23">
         <v>0.43</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H136" s="23">
         <v>0.06</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J136" s="23">
         <v>0.38</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L136" s="23">
         <v>0.13</v>
@@ -13950,34 +13979,34 @@
         <v>2018</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F137" s="23">
         <v>0.21</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H137" s="23">
         <v>0.47</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J137" s="23">
         <v>0.18</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L137" s="23">
         <v>0.14000000000000001</v>
@@ -14036,34 +14065,34 @@
         <v>2018</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F138" s="23">
         <v>0.19</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H138" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J138" s="23">
         <v>0.15</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L138" s="23">
         <v>0.11</v>
@@ -14122,34 +14151,34 @@
         <v>2018</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F139" s="23">
         <v>0.27</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H139" s="23">
         <v>0.36</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J139" s="23">
         <v>0.26</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L139" s="23">
         <v>0.11</v>
@@ -14208,34 +14237,34 @@
         <v>2018</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F140" s="23">
         <v>0.23</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H140" s="23">
         <v>0.45</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J140" s="23">
         <v>0.21</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L140" s="23">
         <v>0.11</v>
@@ -14294,34 +14323,34 @@
         <v>2018</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F141" s="23">
         <v>0.24</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H141" s="23">
         <v>0.45</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J141" s="23">
         <v>0.2</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L141" s="23">
         <v>0.11</v>
@@ -14380,34 +14409,34 @@
         <v>2018</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F142" s="23">
         <v>0.25</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H142" s="23">
         <v>0.37</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J142" s="23">
         <v>0.27</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L142" s="23">
         <v>0.11</v>
@@ -14466,34 +14495,34 @@
         <v>2018</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F143" s="23">
         <v>0.21</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H143" s="23">
         <v>0.53</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J143" s="23">
         <v>0.14000000000000001</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L143" s="23">
         <v>0.12</v>
@@ -14552,34 +14581,34 @@
         <v>2018</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F144" s="23">
         <v>0.32</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H144" s="23">
         <v>0.33</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J144" s="23">
         <v>0.27</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L144" s="23">
         <v>0.08</v>
@@ -14638,34 +14667,34 @@
         <v>2018</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F145" s="23">
         <v>0.12</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H145" s="23">
         <v>0.6</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J145" s="23">
         <v>0.13</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L145" s="23">
         <v>0.15</v>
@@ -14724,34 +14753,34 @@
         <v>2018</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F146" s="2">
         <v>0</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J146" s="2">
         <v>0</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L146" s="2">
         <v>0</v>
@@ -14810,34 +14839,34 @@
         <v>2018</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F147" s="2">
         <v>0.2</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H147" s="2">
         <v>0.41</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J147" s="2">
         <v>0.21</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L147" s="2">
         <v>0.18</v>
@@ -14896,34 +14925,34 @@
         <v>2018</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F148" s="2">
         <v>0.04</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H148" s="2">
         <v>0.61</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J148" s="2">
         <v>0.19</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L148" s="2">
         <v>0.16</v>
@@ -14982,34 +15011,34 @@
         <v>2018</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F149" s="2">
         <v>0.27</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H149" s="2">
         <v>0.32</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J149" s="2">
         <v>0.19</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L149" s="2">
         <v>0.22</v>
@@ -15068,34 +15097,34 @@
         <v>2018</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F150" s="2">
         <v>0.28000000000000003</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H150" s="2">
         <v>0.31</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J150" s="2">
         <v>0.24</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L150" s="2">
         <v>0.17</v>
@@ -15154,34 +15183,34 @@
         <v>2018</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F151" s="2">
         <v>0.27</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H151" s="2">
         <v>0.33</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J151" s="2">
         <v>0.19</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L151" s="2">
         <v>0.21</v>
@@ -15240,34 +15269,34 @@
         <v>2018</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F152" s="2">
         <v>0.12</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H152" s="2">
         <v>0.49</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J152" s="2">
         <v>0.23</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L152" s="2">
         <v>0.16</v>
@@ -15326,34 +15355,34 @@
         <v>2018</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F153" s="2">
         <v>0.06</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H153" s="2">
         <v>0.7</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J153" s="2">
         <v>0.11</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L153" s="2">
         <v>0.13</v>
@@ -15412,34 +15441,34 @@
         <v>2018</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F154" s="2">
         <v>0.37</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H154" s="2">
         <v>0.05</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J154" s="2">
         <v>0.38</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L154" s="2">
         <v>0.2</v>
@@ -15498,34 +15527,34 @@
         <v>2018</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F155" s="2">
         <v>0.19</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H155" s="2">
         <v>0.43</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J155" s="2">
         <v>0.16</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L155" s="2">
         <v>0.22</v>
@@ -15584,34 +15613,34 @@
         <v>2018</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F156" s="2">
         <v>0.18</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H156" s="2">
         <v>0.46</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J156" s="2">
         <v>0.18</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L156" s="2">
         <v>0.18</v>
@@ -15670,34 +15699,34 @@
         <v>2018</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F157" s="2">
         <v>0.22</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H157" s="2">
         <v>0.36</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J157" s="2">
         <v>0.24</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L157" s="2">
         <v>0.18</v>
@@ -15756,34 +15785,34 @@
         <v>2018</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F158" s="2">
         <v>0.26</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H158" s="2">
         <v>0.28999999999999998</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J158" s="2">
         <v>0.24</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L158" s="2">
         <v>0.21</v>
@@ -15842,34 +15871,34 @@
         <v>2018</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F159" s="2">
         <v>0.16</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H159" s="2">
         <v>0.49</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J159" s="2">
         <v>0.19</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L159" s="2">
         <v>0.16</v>
@@ -15928,34 +15957,34 @@
         <v>2018</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F160" s="2">
         <v>0.23</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H160" s="2">
         <v>0.37</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J160" s="2">
         <v>0.19</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L160" s="2">
         <v>0.21</v>
@@ -16014,34 +16043,34 @@
         <v>2018</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F161" s="2">
         <v>0.17</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H161" s="2">
         <v>0.46</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J161" s="2">
         <v>0.23</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L161" s="2">
         <v>0.14000000000000001</v>
@@ -16100,34 +16129,34 @@
         <v>2018</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F162" s="2">
         <v>0.26</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H162" s="2">
         <v>0.33</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J162" s="2">
         <v>0.27</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L162" s="2">
         <v>0.14000000000000001</v>
@@ -16186,34 +16215,34 @@
         <v>2018</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F163" s="2">
         <v>0.13</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H163" s="23">
         <v>0.51</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J163" s="2">
         <v>0.13</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L163" s="2">
         <v>0.23</v>
@@ -16272,42 +16301,42 @@
         <v>2018</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F164" s="2">
         <v>0</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H164" s="2">
         <v>0</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J164" s="2">
         <v>0</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L164" s="2">
         <v>0</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N164" s="2">
+        <v>175</v>
+      </c>
+      <c r="N164" s="26">
         <v>0</v>
       </c>
       <c r="O164" s="1" t="s">
@@ -16358,40 +16387,40 @@
         <v>2018</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F165" s="24">
         <v>0.05</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H165" s="24">
         <v>0.21</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J165" s="24">
         <v>0.4</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L165" s="24">
         <v>0.33</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N165" s="24">
         <v>0.01</v>
@@ -16444,40 +16473,40 @@
         <v>2018</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F166" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H166" s="24">
         <v>0.32</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J166" s="24">
         <v>0.42</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L166" s="24">
         <v>0.18</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N166" s="24">
         <v>0.01</v>
@@ -16530,40 +16559,40 @@
         <v>2018</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F167" s="24">
         <v>0.05</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H167" s="24">
         <v>0.2</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J167" s="24">
         <v>0.37</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L167" s="24">
         <v>0.36</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N167" s="24">
         <v>0.02</v>
@@ -16616,40 +16645,40 @@
         <v>2018</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F168" s="24">
         <v>0.03</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H168" s="24">
         <v>0.13</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J168" s="24">
         <v>0.4</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L168" s="24">
         <v>0.43</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N168" s="24">
         <v>0.01</v>
@@ -16702,40 +16731,40 @@
         <v>2018</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F169" s="24">
         <v>0.03</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H169" s="24">
         <v>0.14000000000000001</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J169" s="24">
         <v>0.32</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L169" s="24">
         <v>0.5</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N169" s="24">
         <v>0.01</v>
@@ -16788,40 +16817,40 @@
         <v>2018</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F170" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H170" s="24">
         <v>0.28000000000000003</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J170" s="24">
         <v>0.47</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L170" s="24">
         <v>0.17</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N170" s="24">
         <v>0.01</v>
@@ -16874,40 +16903,40 @@
         <v>2018</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F171" s="24">
         <v>0.06</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H171" s="24">
         <v>0.22</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J171" s="24">
         <v>0.52</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L171" s="24">
         <v>0.19</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N171" s="24">
         <v>0.01</v>
@@ -16960,40 +16989,40 @@
         <v>2018</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F172" s="24">
         <v>0.05</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H172" s="24">
         <v>0.2</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J172" s="24">
         <v>0.26</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L172" s="24">
         <v>0.47</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N172" s="24">
         <v>0.02</v>
@@ -17046,40 +17075,40 @@
         <v>2018</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F173" s="24">
         <v>0.04</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H173" s="24">
         <v>0.19</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J173" s="24">
         <v>0.41</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L173" s="24">
         <v>0.35</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N173" s="24">
         <v>0.01</v>
@@ -17132,40 +17161,40 @@
         <v>2018</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F174" s="24">
         <v>0.06</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H174" s="24">
         <v>0.24</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J174" s="24">
         <v>0.38</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L174" s="24">
         <v>0.31</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N174" s="24">
         <v>0.01</v>
@@ -17218,40 +17247,40 @@
         <v>2018</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F175" s="24">
         <v>0.04</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H175" s="24">
         <v>0.18</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J175" s="24">
         <v>0.42</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L175" s="24">
         <v>0.35</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N175" s="24">
         <v>0.01</v>
@@ -17304,40 +17333,40 @@
         <v>2018</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F176" s="24">
         <v>0.04</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H176" s="24">
         <v>0.17</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J176" s="24">
         <v>0.42</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L176" s="24">
         <v>0.35</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N176" s="24">
         <v>0.02</v>
@@ -17390,40 +17419,40 @@
         <v>2018</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F177" s="24">
         <v>0.05</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H177" s="24">
         <v>0.23</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J177" s="24">
         <v>0.39</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L177" s="24">
         <v>0.32</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N177" s="24">
         <v>0.01</v>
@@ -17476,40 +17505,40 @@
         <v>2018</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F178" s="24">
         <v>0.03</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H178" s="24">
         <v>0.16</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J178" s="24">
         <v>0.39</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L178" s="24">
         <v>0.4</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N178" s="24">
         <v>0.02</v>
@@ -17562,40 +17591,40 @@
         <v>2018</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F179" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H179" s="24">
         <v>0.28000000000000003</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J179" s="24">
         <v>0.41</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L179" s="24">
         <v>0.24</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N179" s="24">
         <v>0</v>
@@ -17648,40 +17677,40 @@
         <v>2018</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F180" s="24">
         <v>0.03</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H180" s="24">
         <v>0.17</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J180" s="25">
         <v>0.38</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L180" s="24">
         <v>0.42</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N180" s="25">
         <v>0</v>
@@ -17734,40 +17763,40 @@
         <v>2018</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F181" s="24">
         <v>0.08</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H181" s="24">
         <v>0.26</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J181" s="25">
         <v>0.43</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L181" s="24">
         <v>0.21</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N181" s="25">
         <v>0.02</v>
@@ -17820,28 +17849,28 @@
         <v>2018</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F182" s="2">
         <v>0</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H182" s="2">
         <v>0</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J182" s="2">
         <v>0</v>
@@ -17906,28 +17935,28 @@
         <v>2018</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F183" s="23">
         <v>0.52</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H183" s="23">
         <v>0.16</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J183" s="23">
         <v>0.32</v>
@@ -17992,28 +18021,28 @@
         <v>2018</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F184" s="23">
         <v>0.65</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H184" s="23">
         <v>0.06</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J184" s="23">
         <v>0.28999999999999998</v>
@@ -18078,28 +18107,28 @@
         <v>2018</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F185" s="23">
         <v>0.46</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H185" s="23">
         <v>0.16</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J185" s="23">
         <v>0.38</v>
@@ -18164,28 +18193,28 @@
         <v>2018</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F186" s="23">
         <v>0.45</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H186" s="23">
         <v>0.24</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J186" s="23">
         <v>0.31</v>
@@ -18250,28 +18279,28 @@
         <v>2018</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F187" s="23">
         <v>0.39</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H187" s="23">
         <v>0.21</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J187" s="23">
         <v>0.4</v>
@@ -18336,28 +18365,28 @@
         <v>2018</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F188" s="23">
         <v>0.65</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H188" s="23">
         <v>0.11</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J188" s="23">
         <v>0.24</v>
@@ -18422,28 +18451,28 @@
         <v>2018</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F189" s="23">
         <v>0.88</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H189" s="23">
         <v>0.01</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J189" s="23">
         <v>0.11</v>
@@ -18508,28 +18537,28 @@
         <v>2018</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F190" s="23">
         <v>0.17</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H190" s="23">
         <v>0.34</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J190" s="23">
         <v>0.49</v>
@@ -18594,28 +18623,28 @@
         <v>2018</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F191" s="23">
         <v>0.45</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H191" s="23">
         <v>0.15</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J191" s="23">
         <v>0.4</v>
@@ -18680,28 +18709,28 @@
         <v>2018</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F192" s="23">
         <v>0.57999999999999996</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H192" s="23">
         <v>0.15</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J192" s="23">
         <v>0.27</v>
@@ -18766,28 +18795,28 @@
         <v>2018</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F193" s="23">
         <v>0.47</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H193" s="23">
         <v>0.17</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J193" s="23">
         <v>0.36</v>
@@ -18852,28 +18881,28 @@
         <v>2018</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F194" s="23">
         <v>0.51</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H194" s="23">
         <v>0.15</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J194" s="23">
         <v>0.34</v>
@@ -18938,28 +18967,28 @@
         <v>2018</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F195" s="23">
         <v>0.52</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H195" s="23">
         <v>0.18</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J195" s="23">
         <v>0.3</v>
@@ -19024,28 +19053,28 @@
         <v>2018</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F196" s="23">
         <v>0.46</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H196" s="23">
         <v>0.2</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J196" s="23">
         <v>0.34</v>
@@ -19110,28 +19139,28 @@
         <v>2018</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F197" s="23">
         <v>0.59</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H197" s="23">
         <v>0.12</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J197" s="23">
         <v>0.28999999999999998</v>
@@ -19196,28 +19225,28 @@
         <v>2018</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F198" s="23">
         <v>0.38</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H198" s="23">
         <v>0.23</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J198" s="23">
         <v>0.39</v>
@@ -19282,28 +19311,28 @@
         <v>2018</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F199" s="23">
         <v>0.7</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H199" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J199" s="23">
         <v>0.23</v>
@@ -19368,28 +19397,28 @@
         <v>2018</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F200" s="2">
         <v>0</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H200" s="2">
         <v>0</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J200" s="2">
         <v>0</v>
@@ -19454,28 +19483,28 @@
         <v>2018</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F201" s="23">
         <v>0.35</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H201" s="23">
         <v>0.43</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J201" s="23">
         <v>0.22</v>
@@ -19540,28 +19569,28 @@
         <v>2018</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F202" s="23">
         <v>0.16</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H202" s="23">
         <v>0.56999999999999995</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J202" s="23">
         <v>0.27</v>
@@ -19626,28 +19655,28 @@
         <v>2018</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F203" s="23">
         <v>0.4</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H203" s="23">
         <v>0.39</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J203" s="23">
         <v>0.21</v>
@@ -19712,28 +19741,28 @@
         <v>2018</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F204" s="23">
         <v>0.47</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H204" s="23">
         <v>0.34</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J204" s="23">
         <v>0.19</v>
@@ -19798,28 +19827,28 @@
         <v>2018</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F205" s="23">
         <v>0.42</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H205" s="23">
         <v>0.37</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J205" s="23">
         <v>0.21</v>
@@ -19884,28 +19913,28 @@
         <v>2018</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F206" s="23">
         <v>0.28000000000000003</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H206" s="23">
         <v>0.49</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J206" s="23">
         <v>0.23</v>
@@ -19970,28 +19999,28 @@
         <v>2018</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F207" s="23">
         <v>0.1</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H207" s="23">
         <v>0.83</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J207" s="23">
         <v>7.0000000000000007E-2</v>
@@ -20056,28 +20085,28 @@
         <v>2018</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F208" s="23">
         <v>0.73</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H208" s="23">
         <v>0.03</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J208" s="23">
         <v>0.24</v>
@@ -20142,28 +20171,28 @@
         <v>2018</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F209" s="23">
         <v>0.28999999999999998</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H209" s="23">
         <v>0.37</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J209" s="23">
         <v>0.34</v>
@@ -20228,28 +20257,28 @@
         <v>2018</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F210" s="23">
         <v>0.28999999999999998</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H210" s="23">
         <v>0.45</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J210" s="23">
         <v>0.26</v>
@@ -20314,28 +20343,28 @@
         <v>2018</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F211" s="23">
         <v>0.4</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H211" s="23">
         <v>0.41</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J211" s="23">
         <v>0.19</v>
@@ -20400,28 +20429,28 @@
         <v>2018</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F212" s="23">
         <v>0.39</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H212" s="23">
         <v>0.38</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J212" s="23">
         <v>0.23</v>
@@ -20486,28 +20515,28 @@
         <v>2018</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F213" s="23">
         <v>0.32</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H213" s="23">
         <v>0.46</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J213" s="23">
         <v>0.22</v>
@@ -20572,28 +20601,28 @@
         <v>2018</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F214" s="23">
         <v>0.39</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H214" s="23">
         <v>0.41</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J214" s="23">
         <v>0.2</v>
@@ -20658,28 +20687,28 @@
         <v>2018</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F215" s="23">
         <v>0.31</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H215" s="23">
         <v>0.45</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J215" s="23">
         <v>0.24</v>
@@ -20744,28 +20773,28 @@
         <v>2018</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F216" s="23">
         <v>0.46</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H216" s="23">
         <v>0.34</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J216" s="23">
         <v>0.2</v>
@@ -20830,28 +20859,28 @@
         <v>2018</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F217" s="23">
         <v>0.21</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H217" s="23">
         <v>0.54</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J217" s="23">
         <v>0.25</v>
@@ -20916,10 +20945,10 @@
         <v>2018</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>28</v>
@@ -20937,7 +20966,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J218" s="2">
         <v>0</v>
@@ -21002,10 +21031,10 @@
         <v>2018</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>30</v>
@@ -21023,7 +21052,7 @@
         <v>0.44</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J219" s="23">
         <v>0.04</v>
@@ -21088,10 +21117,10 @@
         <v>2018</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>79</v>
@@ -21109,7 +21138,7 @@
         <v>0.62</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J220" s="23">
         <v>0.02</v>
@@ -21174,10 +21203,10 @@
         <v>2018</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>31</v>
@@ -21195,7 +21224,7 @@
         <v>0.4</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J221" s="23">
         <v>7.0000000000000007E-2</v>
@@ -21260,10 +21289,10 @@
         <v>2018</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>89</v>
@@ -21281,7 +21310,7 @@
         <v>0.33</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J222" s="23">
         <v>0.03</v>
@@ -21346,10 +21375,10 @@
         <v>2018</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>32</v>
@@ -21367,7 +21396,7 @@
         <v>0.35</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J223" s="23">
         <v>0.04</v>
@@ -21432,10 +21461,10 @@
         <v>2018</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>33</v>
@@ -21453,7 +21482,7 @@
         <v>0.52</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J224" s="23">
         <v>0.04</v>
@@ -21518,10 +21547,10 @@
         <v>2018</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>36</v>
@@ -21539,7 +21568,7 @@
         <v>0.52</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J225" s="23">
         <v>0.01</v>
@@ -21604,10 +21633,10 @@
         <v>2018</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>37</v>
@@ -21625,7 +21654,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J226" s="23">
         <v>0.08</v>
@@ -21690,10 +21719,10 @@
         <v>2018</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>38</v>
@@ -21711,7 +21740,7 @@
         <v>0.42</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J227" s="23">
         <v>0.05</v>
@@ -21776,13 +21805,13 @@
         <v>2018</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>100</v>
@@ -21797,7 +21826,7 @@
         <v>0.45</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J228" s="23">
         <v>0.04</v>
@@ -21862,13 +21891,13 @@
         <v>2018</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>100</v>
@@ -21883,7 +21912,7 @@
         <v>0.41</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J229" s="23">
         <v>0.04</v>
@@ -21948,10 +21977,10 @@
         <v>2018</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>34</v>
@@ -21969,7 +21998,7 @@
         <v>0.41</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J230" s="23">
         <v>0.05</v>
@@ -22034,10 +22063,10 @@
         <v>2018</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>35</v>
@@ -22055,7 +22084,7 @@
         <v>0.46</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J231" s="23">
         <v>0.03</v>
@@ -22120,10 +22149,10 @@
         <v>2018</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>77</v>
@@ -22141,7 +22170,7 @@
         <v>0.4</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J232" s="23">
         <v>0.03</v>
@@ -22206,10 +22235,10 @@
         <v>2018</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>78</v>
@@ -22227,7 +22256,7 @@
         <v>0.49</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J233" s="23">
         <v>0.05</v>
@@ -22292,10 +22321,10 @@
         <v>2018</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>28</v>
@@ -22313,7 +22342,7 @@
         <v>0</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J234" s="2">
         <v>0</v>
@@ -22378,10 +22407,10 @@
         <v>2018</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>30</v>
@@ -22399,7 +22428,7 @@
         <v>0.54</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J235" s="23">
         <v>0.01</v>
@@ -22464,10 +22493,10 @@
         <v>2018</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>79</v>
@@ -22485,7 +22514,7 @@
         <v>0.79</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J236" s="23">
         <v>0.01</v>
@@ -22550,10 +22579,10 @@
         <v>2018</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>31</v>
@@ -22571,7 +22600,7 @@
         <v>0.45</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J237" s="23">
         <v>0.01</v>
@@ -22636,10 +22665,10 @@
         <v>2018</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>89</v>
@@ -22657,7 +22686,7 @@
         <v>0.4</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J238" s="23">
         <v>0.01</v>
@@ -22722,10 +22751,10 @@
         <v>2018</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>32</v>
@@ -22743,7 +22772,7 @@
         <v>0.48</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J239" s="23">
         <v>0.01</v>
@@ -22808,10 +22837,10 @@
         <v>2018</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>33</v>
@@ -22829,7 +22858,7 @@
         <v>0.6</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J240" s="23">
         <v>0.01</v>
@@ -22894,10 +22923,10 @@
         <v>2018</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>36</v>
@@ -22915,7 +22944,7 @@
         <v>0.73</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J241" s="23">
         <v>0.01</v>
@@ -22980,10 +23009,10 @@
         <v>2018</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>37</v>
@@ -23001,7 +23030,7 @@
         <v>0.31</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J242" s="2">
         <v>0</v>
@@ -23066,10 +23095,10 @@
         <v>2018</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>38</v>
@@ -23087,7 +23116,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J243" s="23">
         <v>0.02</v>
@@ -23152,13 +23181,13 @@
         <v>2018</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>100</v>
@@ -23173,7 +23202,7 @@
         <v>0.62</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J244" s="23">
         <v>0.01</v>
@@ -23238,13 +23267,13 @@
         <v>2018</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>100</v>
@@ -23259,7 +23288,7 @@
         <v>0.47</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J245" s="23">
         <v>0.01</v>
@@ -23324,10 +23353,10 @@
         <v>2018</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>34</v>
@@ -23345,7 +23374,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J246" s="23">
         <v>0.02</v>
@@ -23410,10 +23439,10 @@
         <v>2018</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>35</v>
@@ -23431,7 +23460,7 @@
         <v>0.53</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J247" s="2">
         <v>0</v>
@@ -23496,10 +23525,10 @@
         <v>2018</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>77</v>
@@ -23517,7 +23546,7 @@
         <v>0.5</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J248" s="23">
         <v>0.01</v>
@@ -23582,10 +23611,10 @@
         <v>2018</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>78</v>
@@ -23603,7 +23632,7 @@
         <v>0.59</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J249" s="23">
         <v>0.01</v>
@@ -23668,13 +23697,13 @@
         <v>2018</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>100</v>
@@ -23689,7 +23718,7 @@
         <v>0.3</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J250" s="23">
         <v>0.01</v>
@@ -23754,13 +23783,13 @@
         <v>2018</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>100</v>
@@ -23775,7 +23804,7 @@
         <v>0.85</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J251" s="23">
         <v>0.01</v>
